--- a/nif_reader_4/src/btpy/res/lastname_data.xlsx
+++ b/nif_reader_4/src/btpy/res/lastname_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="5867"/>
+    <workbookView windowWidth="15360" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="1194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="1400">
   <si>
     <t>russian</t>
   </si>
@@ -992,6 +992,9 @@
     <t>Arnaud</t>
   </si>
   <si>
+    <t>Rabaneda</t>
+  </si>
+  <si>
     <t>afrikan</t>
   </si>
   <si>
@@ -1664,6 +1667,9 @@
     <t>Carrasco</t>
   </si>
   <si>
+    <t>Tobela</t>
+  </si>
+  <si>
     <t>Cortez</t>
   </si>
   <si>
@@ -1688,6 +1694,9 @@
     <t>Riquelme</t>
   </si>
   <si>
+    <t>Vila</t>
+  </si>
+  <si>
     <t>Miranda</t>
   </si>
   <si>
@@ -1799,6 +1808,126 @@
     <t>Lagos</t>
   </si>
   <si>
+    <t>Velazquez</t>
+  </si>
+  <si>
+    <t>Goya</t>
+  </si>
+  <si>
+    <t>Alonso</t>
+  </si>
+  <si>
+    <t>Franco</t>
+  </si>
+  <si>
+    <t>Lorca</t>
+  </si>
+  <si>
+    <t>Iglesias</t>
+  </si>
+  <si>
+    <t>Dias</t>
+  </si>
+  <si>
+    <t>De Vivar</t>
+  </si>
+  <si>
+    <t>Nadal</t>
+  </si>
+  <si>
+    <t>Gaudi</t>
+  </si>
+  <si>
+    <t>Banderas</t>
+  </si>
+  <si>
+    <t>De Cervantes</t>
+  </si>
+  <si>
+    <t>Bardem</t>
+  </si>
+  <si>
+    <t>Bisbal</t>
+  </si>
+  <si>
+    <t>Ortega</t>
+  </si>
+  <si>
+    <t>Guardiola</t>
+  </si>
+  <si>
+    <t>Almodovar</t>
+  </si>
+  <si>
+    <t>Buñuel</t>
+  </si>
+  <si>
+    <t>Zapatero</t>
+  </si>
+  <si>
+    <t>Larraya</t>
+  </si>
+  <si>
+    <t>Mohadano</t>
+  </si>
+  <si>
+    <t>Jurado</t>
+  </si>
+  <si>
+    <t>Marañon</t>
+  </si>
+  <si>
+    <t>Aznar</t>
+  </si>
+  <si>
+    <t>Gasset</t>
+  </si>
+  <si>
+    <t>Ferrer</t>
+  </si>
+  <si>
+    <t>Cela</t>
+  </si>
+  <si>
+    <t>Duque</t>
+  </si>
+  <si>
+    <t>Ramal</t>
+  </si>
+  <si>
+    <t>Pedrosa</t>
+  </si>
+  <si>
+    <t>Gasol</t>
+  </si>
+  <si>
+    <t>Monje</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Jimenez</t>
+  </si>
+  <si>
+    <t>Carrillo</t>
+  </si>
+  <si>
+    <t>Solares</t>
+  </si>
+  <si>
+    <t>Dominguez</t>
+  </si>
+  <si>
+    <t>De Loyola</t>
+  </si>
+  <si>
+    <t>Caballero</t>
+  </si>
+  <si>
+    <t>Elcano</t>
+  </si>
+  <si>
     <t>turkish</t>
   </si>
   <si>
@@ -2495,6 +2624,288 @@
     <t>Yakano</t>
   </si>
   <si>
+    <t>Toriyama</t>
+  </si>
+  <si>
+    <t>Hayashi</t>
+  </si>
+  <si>
+    <t>Hatake</t>
+  </si>
+  <si>
+    <t>Osaka</t>
+  </si>
+  <si>
+    <t>Tee</t>
+  </si>
+  <si>
+    <t>Yamazaki</t>
+  </si>
+  <si>
+    <t>Misaki</t>
+  </si>
+  <si>
+    <t>Hokusai</t>
+  </si>
+  <si>
+    <t>Kusama</t>
+  </si>
+  <si>
+    <t>Ogata</t>
+  </si>
+  <si>
+    <t>Tendo</t>
+  </si>
+  <si>
+    <t>Sugimoto</t>
+  </si>
+  <si>
+    <t>Nara</t>
+  </si>
+  <si>
+    <t>Shiraga</t>
+  </si>
+  <si>
+    <t>Ohtake</t>
+  </si>
+  <si>
+    <t>Kendo</t>
+  </si>
+  <si>
+    <t>Haruno</t>
+  </si>
+  <si>
+    <t>Yashida</t>
+  </si>
+  <si>
+    <t>Kishibe</t>
+  </si>
+  <si>
+    <t>Aruga</t>
+  </si>
+  <si>
+    <t>Arima</t>
+  </si>
+  <si>
+    <t>Hosogaya</t>
+  </si>
+  <si>
+    <t>Takeaki</t>
+  </si>
+  <si>
+    <t>Jojima</t>
+  </si>
+  <si>
+    <t>Yoshika</t>
+  </si>
+  <si>
+    <t>Ijichi</t>
+  </si>
+  <si>
+    <t>Sukenori</t>
+  </si>
+  <si>
+    <t>Kakuta</t>
+  </si>
+  <si>
+    <t>Sadakichi</t>
+  </si>
+  <si>
+    <t>Tamosaburo</t>
+  </si>
+  <si>
+    <t>Kawamura</t>
+  </si>
+  <si>
+    <t>Koga</t>
+  </si>
+  <si>
+    <t>Kurita</t>
+  </si>
+  <si>
+    <t>Kusaka</t>
+  </si>
+  <si>
+    <t>Mikawa</t>
+  </si>
+  <si>
+    <t>Nagumo</t>
+  </si>
+  <si>
+    <t>Nishimura</t>
+  </si>
+  <si>
+    <t>Nobutake</t>
+  </si>
+  <si>
+    <t>Onishi</t>
+  </si>
+  <si>
+    <t>Ota</t>
+  </si>
+  <si>
+    <t>Ozawa</t>
+  </si>
+  <si>
+    <t>Takagi</t>
+  </si>
+  <si>
+    <t>Toyoda</t>
+  </si>
+  <si>
+    <t>Heihachiro</t>
+  </si>
+  <si>
+    <t>Gonbee</t>
+  </si>
+  <si>
+    <t>Yonai</t>
+  </si>
+  <si>
+    <t>Cho</t>
+  </si>
+  <si>
+    <t>Bada</t>
+  </si>
+  <si>
+    <t>Doihara</t>
+  </si>
+  <si>
+    <t>Imamura</t>
+  </si>
+  <si>
+    <t>Itagaki</t>
+  </si>
+  <si>
+    <t>Taro</t>
+  </si>
+  <si>
+    <t>Kenichi</t>
+  </si>
+  <si>
+    <t>Gentaro</t>
+  </si>
+  <si>
+    <t>Koiso</t>
+  </si>
+  <si>
+    <t>Katsuyoshi</t>
+  </si>
+  <si>
+    <t>Kiyotaka</t>
+  </si>
+  <si>
+    <t>Tamemoto</t>
+  </si>
+  <si>
+    <t>No Noriyori</t>
+  </si>
+  <si>
+    <t>Muto</t>
+  </si>
+  <si>
+    <t>Nishio</t>
+  </si>
+  <si>
+    <t>Nishida</t>
+  </si>
+  <si>
+    <t>Sa-ik</t>
+  </si>
+  <si>
+    <t>Asaka</t>
+  </si>
+  <si>
+    <t>Goro</t>
+  </si>
+  <si>
+    <t>Aritomo</t>
+  </si>
+  <si>
+    <t>Motoharu</t>
+  </si>
+  <si>
+    <t>Hanzo</t>
+  </si>
+  <si>
+    <t>Yamashita</t>
+  </si>
+  <si>
+    <t>Yasuku</t>
+  </si>
+  <si>
+    <t>Ikari</t>
+  </si>
+  <si>
+    <t>Yagami</t>
+  </si>
+  <si>
+    <t>Kusanagi</t>
+  </si>
+  <si>
+    <t>Kujo</t>
+  </si>
+  <si>
+    <t>Kamodo</t>
+  </si>
+  <si>
+    <t>Shinazugawa</t>
+  </si>
+  <si>
+    <t>Kocho</t>
+  </si>
+  <si>
+    <t>Agatsuma</t>
+  </si>
+  <si>
+    <t>Tomioka</t>
+  </si>
+  <si>
+    <t>Tsuyuri</t>
+  </si>
+  <si>
+    <t>Kibutsuji</t>
+  </si>
+  <si>
+    <t>Iguro</t>
+  </si>
+  <si>
+    <t>Uzui</t>
+  </si>
+  <si>
+    <t>Urokodaki</t>
+  </si>
+  <si>
+    <t>Kanzaki</t>
+  </si>
+  <si>
+    <t>Kamado</t>
+  </si>
+  <si>
+    <t>Himejima</t>
+  </si>
+  <si>
+    <t>Aburame</t>
+  </si>
+  <si>
+    <t>Yamanaka</t>
+  </si>
+  <si>
+    <t>Kanemaru</t>
+  </si>
+  <si>
+    <t>Magonojo</t>
+  </si>
+  <si>
+    <t>Munisai</t>
+  </si>
+  <si>
+    <t>Gozen</t>
+  </si>
+  <si>
+    <t>Kiniyoshi</t>
+  </si>
+  <si>
     <t>polinesian</t>
   </si>
   <si>
@@ -2852,9 +3263,6 @@
     <t>Fontana</t>
   </si>
   <si>
-    <t>Franco</t>
-  </si>
-  <si>
     <t>Moretti</t>
   </si>
   <si>
@@ -3161,6 +3569,12 @@
     <t>Totti</t>
   </si>
   <si>
+    <t>Dali</t>
+  </si>
+  <si>
+    <t>Picazzo</t>
+  </si>
+  <si>
     <t>slavic</t>
   </si>
   <si>
@@ -3609,6 +4023,210 @@
   </si>
   <si>
     <t>Rosati</t>
+  </si>
+  <si>
+    <t>hebrew</t>
+  </si>
+  <si>
+    <t>Cohen</t>
+  </si>
+  <si>
+    <t>Levy</t>
+  </si>
+  <si>
+    <t>Mizrahi</t>
+  </si>
+  <si>
+    <t>Peretz</t>
+  </si>
+  <si>
+    <t>Bitton</t>
+  </si>
+  <si>
+    <t>Dahan</t>
+  </si>
+  <si>
+    <t>Agbaria</t>
+  </si>
+  <si>
+    <t>Avraham</t>
+  </si>
+  <si>
+    <t>Katz</t>
+  </si>
+  <si>
+    <t>Yosef</t>
+  </si>
+  <si>
+    <t>Omer</t>
+  </si>
+  <si>
+    <t>Mhamid</t>
+  </si>
+  <si>
+    <t>Dohan</t>
+  </si>
+  <si>
+    <t>Abramov</t>
+  </si>
+  <si>
+    <t>Azoulai</t>
+  </si>
+  <si>
+    <t>Malka</t>
+  </si>
+  <si>
+    <t>Hadad</t>
+  </si>
+  <si>
+    <t>Amar</t>
+  </si>
+  <si>
+    <t>Gaddai</t>
+  </si>
+  <si>
+    <t>Edri</t>
+  </si>
+  <si>
+    <t>Tal</t>
+  </si>
+  <si>
+    <t>Shapira</t>
+  </si>
+  <si>
+    <t>Hazan</t>
+  </si>
+  <si>
+    <t>Moshe</t>
+  </si>
+  <si>
+    <t>Ohana</t>
+  </si>
+  <si>
+    <t>Segal</t>
+  </si>
+  <si>
+    <t>Golan</t>
+  </si>
+  <si>
+    <t>Yitzhak</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>Yaakov</t>
+  </si>
+  <si>
+    <t>Shalom</t>
+  </si>
+  <si>
+    <t>Mor</t>
+  </si>
+  <si>
+    <t>Dayan</t>
+  </si>
+  <si>
+    <t>Eliyahu</t>
+  </si>
+  <si>
+    <t>Elbaz</t>
+  </si>
+  <si>
+    <t>Lavi</t>
+  </si>
+  <si>
+    <t>Suissa</t>
+  </si>
+  <si>
+    <t>Shemesh</t>
+  </si>
+  <si>
+    <t>Stern</t>
+  </si>
+  <si>
+    <t>Nachum</t>
+  </si>
+  <si>
+    <t>Alon</t>
+  </si>
+  <si>
+    <t>Rosenberg</t>
+  </si>
+  <si>
+    <t>Sharabi</t>
+  </si>
+  <si>
+    <t>Sasson</t>
+  </si>
+  <si>
+    <t>Bachar</t>
+  </si>
+  <si>
+    <t>Shahar</t>
+  </si>
+  <si>
+    <t>Maimon</t>
+  </si>
+  <si>
+    <t>Ovadia</t>
+  </si>
+  <si>
+    <t>Ben Hemo</t>
+  </si>
+  <si>
+    <t>Vaknin</t>
+  </si>
+  <si>
+    <t>Assouline</t>
+  </si>
+  <si>
+    <t>Meir</t>
+  </si>
+  <si>
+    <t>Amsalem</t>
+  </si>
+  <si>
+    <t>Baruch</t>
+  </si>
+  <si>
+    <t>Rubin</t>
+  </si>
+  <si>
+    <t>Harel</t>
+  </si>
+  <si>
+    <t>Ezra</t>
+  </si>
+  <si>
+    <t>Sabag</t>
+  </si>
+  <si>
+    <t>Yifrah</t>
+  </si>
+  <si>
+    <t>Kadosh</t>
+  </si>
+  <si>
+    <t>Halimi</t>
+  </si>
+  <si>
+    <t>Azulay</t>
+  </si>
+  <si>
+    <t>Gal</t>
+  </si>
+  <si>
+    <t>Nissim</t>
+  </si>
+  <si>
+    <t>Zaken</t>
+  </si>
+  <si>
+    <t>Menashe</t>
+  </si>
+  <si>
+    <t>Abraham</t>
   </si>
 </sst>
 </file>
@@ -4277,6 +4895,22 @@
     <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4544,13 +5178,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:EV16"/>
+  <dimension ref="A2:FS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="FI7" workbookViewId="0">
+      <selection activeCell="FS13" sqref="FS13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.7777777777778" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="16384" width="11.7777777777778" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:70">
       <c r="A2" t="s">
@@ -5334,7 +5971,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:66">
+    <row r="6" spans="1:67">
       <c r="A6" t="s">
         <v>258</v>
       </c>
@@ -5532,2723 +6169,3358 @@
       </c>
       <c r="BN6" t="s">
         <v>320</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:68">
       <c r="A7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="V7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="W7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="X7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Y7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AA7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AB7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AC7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AD7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AE7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AH7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AI7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AJ7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AP7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AQ7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AR7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AS7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AT7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AU7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AV7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AW7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AX7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AY7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AZ7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BA7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="BB7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BC7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BD7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BE7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BF7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BG7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="BH7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BI7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="BJ7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="BK7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="BL7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="BM7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="BN7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="BO7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="BP7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:66">
       <c r="A8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B8" t="s">
         <v>283</v>
       </c>
       <c r="C8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G8" t="s">
         <v>310</v>
       </c>
       <c r="H8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="R8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="S8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="T8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="U8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="V8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="W8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="X8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Y8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AB8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AC8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AD8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AE8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AH8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AI8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AJ8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AK8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AO8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AP8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AQ8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AR8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AS8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AT8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AU8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AV8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AW8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AX8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AY8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AZ8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="BA8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BB8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="BC8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BD8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="BE8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BF8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BG8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BH8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BI8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BJ8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="BK8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="BL8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="BM8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="BN8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:55">
       <c r="A9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N9" t="s">
         <v>202</v>
       </c>
       <c r="O9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="R9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="T9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="U9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="V9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="W9" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="X9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Y9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Z9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AB9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AC9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AD9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AE9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG9" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AH9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AI9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AJ9" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AK9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AN9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AO9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AP9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AQ9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AR9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AS9" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AT9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AU9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AV9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AW9" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AX9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AY9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AZ9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="BA9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="BB9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="BC9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
-    <row r="10" spans="1:88">
+    <row r="10" spans="1:128">
       <c r="A10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B10" t="s">
         <v>295</v>
       </c>
       <c r="C10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E10" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L10" t="s">
         <v>124</v>
       </c>
       <c r="M10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="R10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="S10" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="T10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="U10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="V10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="W10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="X10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Y10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AB10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AC10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AD10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AE10" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AH10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AI10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AJ10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AK10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AL10" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AM10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO10" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AP10" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="AQ10" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AR10" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AS10" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AT10" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AU10" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AV10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AW10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AX10" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AY10" t="s">
-        <v>295</v>
+        <v>555</v>
       </c>
       <c r="AZ10" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="BA10" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="BB10" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="BC10" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="BD10" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="BE10" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="BF10" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="BG10" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="BH10" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="BI10" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="BJ10" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="BK10" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="BL10" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="BM10" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="BN10" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="BO10" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="BP10" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BQ10" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="BR10" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="BS10" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="BT10" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="BU10" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="BV10" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="BW10" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="BX10" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="BY10" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="BZ10" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="CA10" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="CB10" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="CC10" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="CD10" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="CE10" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="CF10" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="CG10" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="CH10" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="CI10" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="CJ10" t="s">
-        <v>589</v>
+        <v>592</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>593</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>594</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>595</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>596</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>597</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>598</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>599</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>600</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>601</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>602</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>603</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>604</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>605</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>606</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>607</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>608</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>609</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>610</v>
+      </c>
+      <c r="DC10" t="s">
+        <v>611</v>
+      </c>
+      <c r="DD10" t="s">
+        <v>612</v>
+      </c>
+      <c r="DE10" t="s">
+        <v>613</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>614</v>
+      </c>
+      <c r="DG10" t="s">
+        <v>615</v>
+      </c>
+      <c r="DH10" t="s">
+        <v>616</v>
+      </c>
+      <c r="DI10" t="s">
+        <v>617</v>
+      </c>
+      <c r="DJ10" t="s">
+        <v>618</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>619</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>620</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>621</v>
+      </c>
+      <c r="DN10" t="s">
+        <v>622</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>623</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>624</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>625</v>
+      </c>
+      <c r="DR10" t="s">
+        <v>626</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>627</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>628</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>629</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>630</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>631</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="11" spans="1:54">
       <c r="A11" t="s">
-        <v>590</v>
+        <v>633</v>
       </c>
       <c r="B11" t="s">
-        <v>591</v>
+        <v>634</v>
       </c>
       <c r="C11" t="s">
-        <v>592</v>
+        <v>635</v>
       </c>
       <c r="D11" t="s">
-        <v>593</v>
+        <v>636</v>
       </c>
       <c r="E11" t="s">
-        <v>594</v>
+        <v>637</v>
       </c>
       <c r="F11" t="s">
-        <v>595</v>
+        <v>638</v>
       </c>
       <c r="G11" t="s">
-        <v>596</v>
+        <v>639</v>
       </c>
       <c r="H11" t="s">
-        <v>597</v>
+        <v>640</v>
       </c>
       <c r="I11" t="s">
-        <v>598</v>
+        <v>641</v>
       </c>
       <c r="J11" t="s">
-        <v>599</v>
+        <v>642</v>
       </c>
       <c r="K11" t="s">
-        <v>600</v>
+        <v>643</v>
       </c>
       <c r="L11" t="s">
-        <v>601</v>
+        <v>644</v>
       </c>
       <c r="M11" t="s">
-        <v>602</v>
+        <v>645</v>
       </c>
       <c r="N11" t="s">
-        <v>603</v>
+        <v>646</v>
       </c>
       <c r="O11" t="s">
-        <v>604</v>
+        <v>647</v>
       </c>
       <c r="P11" t="s">
-        <v>605</v>
+        <v>648</v>
       </c>
       <c r="Q11" t="s">
-        <v>606</v>
+        <v>649</v>
       </c>
       <c r="R11" t="s">
-        <v>607</v>
+        <v>650</v>
       </c>
       <c r="S11" t="s">
-        <v>608</v>
+        <v>651</v>
       </c>
       <c r="T11" t="s">
-        <v>609</v>
+        <v>652</v>
       </c>
       <c r="U11" t="s">
-        <v>610</v>
+        <v>653</v>
       </c>
       <c r="V11" t="s">
-        <v>611</v>
+        <v>654</v>
       </c>
       <c r="W11" t="s">
-        <v>612</v>
+        <v>655</v>
       </c>
       <c r="X11" t="s">
-        <v>613</v>
+        <v>656</v>
       </c>
       <c r="Y11" t="s">
-        <v>614</v>
+        <v>657</v>
       </c>
       <c r="Z11" t="s">
-        <v>615</v>
+        <v>658</v>
       </c>
       <c r="AA11" t="s">
-        <v>616</v>
+        <v>659</v>
       </c>
       <c r="AB11" t="s">
-        <v>617</v>
+        <v>660</v>
       </c>
       <c r="AC11" t="s">
-        <v>618</v>
+        <v>661</v>
       </c>
       <c r="AD11" t="s">
-        <v>619</v>
+        <v>662</v>
       </c>
       <c r="AE11" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="AF11" t="s">
-        <v>621</v>
+        <v>664</v>
       </c>
       <c r="AG11" t="s">
-        <v>622</v>
+        <v>665</v>
       </c>
       <c r="AH11" t="s">
-        <v>623</v>
+        <v>666</v>
       </c>
       <c r="AI11" t="s">
-        <v>624</v>
+        <v>667</v>
       </c>
       <c r="AJ11" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="AK11" t="s">
-        <v>626</v>
+        <v>669</v>
       </c>
       <c r="AL11" t="s">
-        <v>627</v>
+        <v>670</v>
       </c>
       <c r="AM11" t="s">
-        <v>628</v>
+        <v>671</v>
       </c>
       <c r="AN11" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
       <c r="AO11" t="s">
-        <v>630</v>
+        <v>673</v>
       </c>
       <c r="AP11" t="s">
-        <v>631</v>
+        <v>674</v>
       </c>
       <c r="AQ11" t="s">
-        <v>632</v>
+        <v>675</v>
       </c>
       <c r="AR11" t="s">
-        <v>633</v>
+        <v>676</v>
       </c>
       <c r="AS11" t="s">
-        <v>634</v>
+        <v>677</v>
       </c>
       <c r="AT11" t="s">
-        <v>635</v>
+        <v>678</v>
       </c>
       <c r="AU11" t="s">
-        <v>636</v>
+        <v>679</v>
       </c>
       <c r="AV11" t="s">
-        <v>637</v>
+        <v>680</v>
       </c>
       <c r="AW11" t="s">
-        <v>638</v>
+        <v>681</v>
       </c>
       <c r="AX11" t="s">
-        <v>639</v>
+        <v>682</v>
       </c>
       <c r="AY11" t="s">
-        <v>640</v>
+        <v>683</v>
       </c>
       <c r="AZ11" t="s">
-        <v>641</v>
+        <v>684</v>
       </c>
       <c r="BA11" t="s">
-        <v>642</v>
+        <v>685</v>
       </c>
       <c r="BB11" t="s">
-        <v>643</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12" spans="1:99">
       <c r="A12" t="s">
-        <v>644</v>
+        <v>687</v>
       </c>
       <c r="B12" t="s">
-        <v>645</v>
+        <v>688</v>
       </c>
       <c r="C12" t="s">
-        <v>646</v>
+        <v>689</v>
       </c>
       <c r="D12" t="s">
-        <v>647</v>
+        <v>690</v>
       </c>
       <c r="E12" t="s">
-        <v>648</v>
+        <v>691</v>
       </c>
       <c r="F12" t="s">
-        <v>649</v>
+        <v>692</v>
       </c>
       <c r="G12" t="s">
-        <v>650</v>
+        <v>693</v>
       </c>
       <c r="H12" t="s">
-        <v>651</v>
+        <v>694</v>
       </c>
       <c r="I12" t="s">
-        <v>652</v>
+        <v>695</v>
       </c>
       <c r="J12" t="s">
-        <v>653</v>
+        <v>696</v>
       </c>
       <c r="K12" t="s">
-        <v>654</v>
+        <v>697</v>
       </c>
       <c r="L12" t="s">
-        <v>655</v>
+        <v>698</v>
       </c>
       <c r="M12" t="s">
-        <v>656</v>
+        <v>699</v>
       </c>
       <c r="N12" t="s">
-        <v>657</v>
+        <v>700</v>
       </c>
       <c r="O12" t="s">
-        <v>658</v>
+        <v>701</v>
       </c>
       <c r="P12" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q12" t="s">
-        <v>659</v>
+        <v>702</v>
       </c>
       <c r="R12" t="s">
-        <v>660</v>
+        <v>703</v>
       </c>
       <c r="S12" t="s">
-        <v>661</v>
+        <v>704</v>
       </c>
       <c r="T12" t="s">
-        <v>662</v>
+        <v>705</v>
       </c>
       <c r="U12" t="s">
-        <v>663</v>
+        <v>706</v>
       </c>
       <c r="V12" t="s">
-        <v>664</v>
+        <v>707</v>
       </c>
       <c r="W12" t="s">
-        <v>665</v>
+        <v>708</v>
       </c>
       <c r="X12" t="s">
-        <v>666</v>
+        <v>709</v>
       </c>
       <c r="Y12" t="s">
-        <v>667</v>
+        <v>710</v>
       </c>
       <c r="Z12" t="s">
-        <v>668</v>
+        <v>711</v>
       </c>
       <c r="AA12" t="s">
-        <v>669</v>
+        <v>712</v>
       </c>
       <c r="AB12" t="s">
-        <v>670</v>
+        <v>713</v>
       </c>
       <c r="AC12" t="s">
-        <v>671</v>
+        <v>714</v>
       </c>
       <c r="AD12" t="s">
-        <v>672</v>
+        <v>715</v>
       </c>
       <c r="AE12" t="s">
-        <v>673</v>
+        <v>716</v>
       </c>
       <c r="AF12" t="s">
-        <v>674</v>
+        <v>717</v>
       </c>
       <c r="AG12" t="s">
-        <v>675</v>
+        <v>718</v>
       </c>
       <c r="AH12" t="s">
-        <v>676</v>
+        <v>719</v>
       </c>
       <c r="AI12" t="s">
-        <v>677</v>
+        <v>720</v>
       </c>
       <c r="AJ12" t="s">
-        <v>678</v>
+        <v>721</v>
       </c>
       <c r="AK12" t="s">
-        <v>679</v>
+        <v>722</v>
       </c>
       <c r="AL12" t="s">
-        <v>680</v>
+        <v>723</v>
       </c>
       <c r="AM12" t="s">
-        <v>681</v>
+        <v>724</v>
       </c>
       <c r="AN12" t="s">
-        <v>682</v>
+        <v>725</v>
       </c>
       <c r="AO12" t="s">
-        <v>683</v>
+        <v>726</v>
       </c>
       <c r="AP12" t="s">
-        <v>684</v>
+        <v>727</v>
       </c>
       <c r="AQ12" t="s">
-        <v>685</v>
+        <v>728</v>
       </c>
       <c r="AR12" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="AS12" t="s">
-        <v>687</v>
+        <v>730</v>
       </c>
       <c r="AT12" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
       <c r="AU12" t="s">
-        <v>689</v>
+        <v>732</v>
       </c>
       <c r="AV12" t="s">
-        <v>690</v>
+        <v>733</v>
       </c>
       <c r="AW12" t="s">
-        <v>691</v>
+        <v>734</v>
       </c>
       <c r="AX12" t="s">
-        <v>692</v>
+        <v>735</v>
       </c>
       <c r="AY12" t="s">
-        <v>693</v>
+        <v>736</v>
       </c>
       <c r="AZ12" t="s">
-        <v>694</v>
+        <v>737</v>
       </c>
       <c r="BA12" t="s">
-        <v>695</v>
+        <v>738</v>
       </c>
       <c r="BB12" t="s">
-        <v>696</v>
+        <v>739</v>
       </c>
       <c r="BC12" t="s">
-        <v>697</v>
+        <v>740</v>
       </c>
       <c r="BD12" t="s">
-        <v>698</v>
+        <v>741</v>
       </c>
       <c r="BE12" t="s">
-        <v>699</v>
+        <v>742</v>
       </c>
       <c r="BF12" t="s">
-        <v>700</v>
+        <v>743</v>
       </c>
       <c r="BG12" t="s">
-        <v>701</v>
+        <v>744</v>
       </c>
       <c r="BH12" t="s">
-        <v>702</v>
+        <v>745</v>
       </c>
       <c r="BI12" t="s">
-        <v>703</v>
+        <v>746</v>
       </c>
       <c r="BJ12" t="s">
-        <v>704</v>
+        <v>747</v>
       </c>
       <c r="BK12" t="s">
-        <v>705</v>
+        <v>748</v>
       </c>
       <c r="BL12" t="s">
-        <v>706</v>
+        <v>749</v>
       </c>
       <c r="BM12" t="s">
-        <v>707</v>
+        <v>750</v>
       </c>
       <c r="BN12" t="s">
-        <v>708</v>
+        <v>751</v>
       </c>
       <c r="BO12" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="BP12" t="s">
-        <v>709</v>
+        <v>752</v>
       </c>
       <c r="BQ12" t="s">
-        <v>710</v>
+        <v>753</v>
       </c>
       <c r="BR12" t="s">
-        <v>711</v>
+        <v>754</v>
       </c>
       <c r="BS12" t="s">
-        <v>712</v>
+        <v>755</v>
       </c>
       <c r="BT12" t="s">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="BU12" t="s">
-        <v>714</v>
+        <v>757</v>
       </c>
       <c r="BV12" t="s">
-        <v>715</v>
+        <v>758</v>
       </c>
       <c r="BW12" t="s">
-        <v>716</v>
+        <v>759</v>
       </c>
       <c r="BX12" t="s">
-        <v>717</v>
+        <v>760</v>
       </c>
       <c r="BY12" t="s">
-        <v>718</v>
+        <v>761</v>
       </c>
       <c r="BZ12" t="s">
-        <v>719</v>
+        <v>762</v>
       </c>
       <c r="CA12" t="s">
-        <v>720</v>
+        <v>763</v>
       </c>
       <c r="CB12" t="s">
-        <v>721</v>
+        <v>764</v>
       </c>
       <c r="CC12" t="s">
-        <v>722</v>
+        <v>765</v>
       </c>
       <c r="CD12" t="s">
-        <v>723</v>
+        <v>766</v>
       </c>
       <c r="CE12" t="s">
-        <v>724</v>
+        <v>767</v>
       </c>
       <c r="CF12" t="s">
-        <v>725</v>
+        <v>768</v>
       </c>
       <c r="CG12" t="s">
-        <v>726</v>
+        <v>769</v>
       </c>
       <c r="CH12" t="s">
-        <v>727</v>
+        <v>770</v>
       </c>
       <c r="CI12" t="s">
-        <v>728</v>
+        <v>771</v>
       </c>
       <c r="CJ12" t="s">
-        <v>729</v>
+        <v>772</v>
       </c>
       <c r="CK12" t="s">
-        <v>730</v>
+        <v>773</v>
       </c>
       <c r="CL12" t="s">
-        <v>731</v>
+        <v>774</v>
       </c>
       <c r="CM12" t="s">
-        <v>732</v>
+        <v>775</v>
       </c>
       <c r="CN12" t="s">
-        <v>733</v>
+        <v>776</v>
       </c>
       <c r="CO12" t="s">
-        <v>734</v>
+        <v>777</v>
       </c>
       <c r="CP12" t="s">
-        <v>735</v>
+        <v>778</v>
       </c>
       <c r="CQ12" t="s">
-        <v>736</v>
+        <v>779</v>
       </c>
       <c r="CR12" t="s">
-        <v>737</v>
+        <v>780</v>
       </c>
       <c r="CS12" t="s">
-        <v>738</v>
+        <v>781</v>
       </c>
       <c r="CT12" t="s">
-        <v>739</v>
+        <v>782</v>
       </c>
       <c r="CU12" t="s">
-        <v>740</v>
+        <v>783</v>
       </c>
     </row>
-    <row r="13" spans="1:81">
+    <row r="13" spans="1:175">
       <c r="A13" t="s">
-        <v>741</v>
+        <v>784</v>
       </c>
       <c r="B13" t="s">
-        <v>742</v>
+        <v>785</v>
       </c>
       <c r="C13" t="s">
-        <v>743</v>
+        <v>786</v>
       </c>
       <c r="D13" t="s">
-        <v>744</v>
+        <v>787</v>
       </c>
       <c r="E13" t="s">
-        <v>745</v>
+        <v>788</v>
       </c>
       <c r="F13" t="s">
-        <v>746</v>
+        <v>789</v>
       </c>
       <c r="G13" t="s">
-        <v>747</v>
+        <v>790</v>
       </c>
       <c r="H13" t="s">
-        <v>748</v>
+        <v>791</v>
       </c>
       <c r="I13" t="s">
-        <v>749</v>
+        <v>792</v>
       </c>
       <c r="J13" t="s">
-        <v>750</v>
+        <v>793</v>
       </c>
       <c r="K13" t="s">
-        <v>751</v>
+        <v>794</v>
       </c>
       <c r="L13" t="s">
-        <v>752</v>
+        <v>795</v>
       </c>
       <c r="M13" t="s">
-        <v>753</v>
+        <v>796</v>
       </c>
       <c r="N13" t="s">
-        <v>754</v>
+        <v>797</v>
       </c>
       <c r="O13" t="s">
-        <v>755</v>
+        <v>798</v>
       </c>
       <c r="P13" t="s">
-        <v>756</v>
+        <v>799</v>
       </c>
       <c r="Q13" t="s">
-        <v>757</v>
+        <v>800</v>
       </c>
       <c r="R13" t="s">
-        <v>758</v>
+        <v>801</v>
       </c>
       <c r="S13" t="s">
-        <v>759</v>
+        <v>802</v>
       </c>
       <c r="T13" t="s">
-        <v>760</v>
+        <v>803</v>
       </c>
       <c r="U13" t="s">
-        <v>761</v>
+        <v>804</v>
       </c>
       <c r="V13" t="s">
-        <v>762</v>
+        <v>805</v>
       </c>
       <c r="W13" t="s">
-        <v>763</v>
+        <v>806</v>
       </c>
       <c r="X13" t="s">
-        <v>764</v>
+        <v>807</v>
       </c>
       <c r="Y13" t="s">
-        <v>765</v>
+        <v>808</v>
       </c>
       <c r="Z13" t="s">
-        <v>766</v>
+        <v>809</v>
       </c>
       <c r="AA13" t="s">
-        <v>767</v>
+        <v>810</v>
       </c>
       <c r="AB13" t="s">
-        <v>768</v>
+        <v>811</v>
       </c>
       <c r="AC13" t="s">
-        <v>769</v>
+        <v>812</v>
       </c>
       <c r="AD13" t="s">
-        <v>770</v>
+        <v>813</v>
       </c>
       <c r="AE13" t="s">
-        <v>771</v>
+        <v>814</v>
       </c>
       <c r="AF13" t="s">
-        <v>772</v>
+        <v>815</v>
       </c>
       <c r="AG13" t="s">
-        <v>773</v>
+        <v>816</v>
       </c>
       <c r="AH13" t="s">
-        <v>774</v>
+        <v>817</v>
       </c>
       <c r="AI13" t="s">
-        <v>775</v>
+        <v>818</v>
       </c>
       <c r="AJ13" t="s">
-        <v>776</v>
+        <v>819</v>
       </c>
       <c r="AK13" t="s">
-        <v>777</v>
+        <v>820</v>
       </c>
       <c r="AL13" t="s">
-        <v>778</v>
+        <v>821</v>
       </c>
       <c r="AM13" t="s">
-        <v>779</v>
+        <v>822</v>
       </c>
       <c r="AN13" t="s">
-        <v>780</v>
+        <v>823</v>
       </c>
       <c r="AO13" t="s">
-        <v>781</v>
+        <v>824</v>
       </c>
       <c r="AP13" t="s">
-        <v>782</v>
+        <v>825</v>
       </c>
       <c r="AQ13" t="s">
-        <v>783</v>
+        <v>826</v>
       </c>
       <c r="AR13" t="s">
-        <v>784</v>
+        <v>827</v>
       </c>
       <c r="AS13" t="s">
-        <v>785</v>
+        <v>828</v>
       </c>
       <c r="AT13" t="s">
-        <v>786</v>
+        <v>829</v>
       </c>
       <c r="AU13" t="s">
-        <v>787</v>
+        <v>830</v>
       </c>
       <c r="AV13" t="s">
-        <v>788</v>
+        <v>831</v>
       </c>
       <c r="AW13" t="s">
-        <v>789</v>
+        <v>832</v>
       </c>
       <c r="AX13" t="s">
-        <v>790</v>
+        <v>833</v>
       </c>
       <c r="AY13" t="s">
-        <v>791</v>
+        <v>834</v>
       </c>
       <c r="AZ13" t="s">
-        <v>792</v>
+        <v>835</v>
       </c>
       <c r="BA13" t="s">
-        <v>793</v>
+        <v>836</v>
       </c>
       <c r="BB13" t="s">
-        <v>794</v>
+        <v>837</v>
       </c>
       <c r="BC13" t="s">
-        <v>795</v>
+        <v>838</v>
       </c>
       <c r="BD13" t="s">
-        <v>796</v>
+        <v>839</v>
       </c>
       <c r="BE13" t="s">
-        <v>797</v>
+        <v>840</v>
       </c>
       <c r="BF13" t="s">
-        <v>798</v>
+        <v>841</v>
       </c>
       <c r="BG13" t="s">
-        <v>799</v>
+        <v>842</v>
       </c>
       <c r="BH13" t="s">
-        <v>800</v>
+        <v>843</v>
       </c>
       <c r="BI13" t="s">
-        <v>801</v>
+        <v>844</v>
       </c>
       <c r="BJ13" t="s">
-        <v>802</v>
+        <v>845</v>
       </c>
       <c r="BK13" t="s">
-        <v>803</v>
+        <v>846</v>
       </c>
       <c r="BL13" t="s">
-        <v>804</v>
+        <v>847</v>
       </c>
       <c r="BM13" t="s">
-        <v>805</v>
+        <v>848</v>
       </c>
       <c r="BN13" t="s">
-        <v>806</v>
+        <v>849</v>
       </c>
       <c r="BO13" t="s">
-        <v>807</v>
+        <v>850</v>
       </c>
       <c r="BP13" t="s">
-        <v>808</v>
+        <v>851</v>
       </c>
       <c r="BQ13" t="s">
-        <v>809</v>
+        <v>852</v>
       </c>
       <c r="BR13" t="s">
-        <v>810</v>
+        <v>853</v>
       </c>
       <c r="BS13" t="s">
-        <v>811</v>
+        <v>854</v>
       </c>
       <c r="BT13" t="s">
-        <v>812</v>
+        <v>855</v>
       </c>
       <c r="BU13" t="s">
-        <v>813</v>
+        <v>856</v>
       </c>
       <c r="BV13" t="s">
-        <v>814</v>
+        <v>857</v>
       </c>
       <c r="BW13" t="s">
-        <v>815</v>
+        <v>858</v>
       </c>
       <c r="BX13" t="s">
-        <v>816</v>
+        <v>859</v>
       </c>
       <c r="BY13" t="s">
-        <v>817</v>
+        <v>860</v>
       </c>
       <c r="BZ13" t="s">
-        <v>818</v>
+        <v>861</v>
       </c>
       <c r="CA13" t="s">
-        <v>819</v>
+        <v>862</v>
       </c>
       <c r="CB13" t="s">
-        <v>820</v>
+        <v>863</v>
       </c>
       <c r="CC13" t="s">
-        <v>821</v>
+        <v>864</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>865</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>866</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>867</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>868</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>869</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>870</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>871</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>872</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>873</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>874</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>875</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>876</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>877</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>878</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>879</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>880</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>881</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>882</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>883</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>884</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>885</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>886</v>
+      </c>
+      <c r="CZ13" t="s">
+        <v>887</v>
+      </c>
+      <c r="DA13" t="s">
+        <v>888</v>
+      </c>
+      <c r="DB13" t="s">
+        <v>889</v>
+      </c>
+      <c r="DC13" t="s">
+        <v>890</v>
+      </c>
+      <c r="DD13" t="s">
+        <v>891</v>
+      </c>
+      <c r="DE13" t="s">
+        <v>892</v>
+      </c>
+      <c r="DF13" t="s">
+        <v>893</v>
+      </c>
+      <c r="DG13" t="s">
+        <v>894</v>
+      </c>
+      <c r="DH13" t="s">
+        <v>895</v>
+      </c>
+      <c r="DI13" t="s">
+        <v>896</v>
+      </c>
+      <c r="DJ13" t="s">
+        <v>897</v>
+      </c>
+      <c r="DK13" t="s">
+        <v>898</v>
+      </c>
+      <c r="DL13" t="s">
+        <v>899</v>
+      </c>
+      <c r="DM13" t="s">
+        <v>900</v>
+      </c>
+      <c r="DN13" t="s">
+        <v>901</v>
+      </c>
+      <c r="DO13" t="s">
+        <v>902</v>
+      </c>
+      <c r="DP13" t="s">
+        <v>903</v>
+      </c>
+      <c r="DQ13" t="s">
+        <v>904</v>
+      </c>
+      <c r="DR13" t="s">
+        <v>905</v>
+      </c>
+      <c r="DS13" t="s">
+        <v>906</v>
+      </c>
+      <c r="DT13" t="s">
+        <v>907</v>
+      </c>
+      <c r="DU13" t="s">
+        <v>908</v>
+      </c>
+      <c r="DV13" t="s">
+        <v>909</v>
+      </c>
+      <c r="DW13" t="s">
+        <v>910</v>
+      </c>
+      <c r="DX13" t="s">
+        <v>911</v>
+      </c>
+      <c r="DY13" t="s">
+        <v>912</v>
+      </c>
+      <c r="DZ13" t="s">
+        <v>913</v>
+      </c>
+      <c r="EA13" t="s">
+        <v>914</v>
+      </c>
+      <c r="EB13" t="s">
+        <v>915</v>
+      </c>
+      <c r="EC13" t="s">
+        <v>916</v>
+      </c>
+      <c r="ED13" t="s">
+        <v>917</v>
+      </c>
+      <c r="EE13" t="s">
+        <v>918</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>919</v>
+      </c>
+      <c r="EG13" t="s">
+        <v>920</v>
+      </c>
+      <c r="EH13" t="s">
+        <v>921</v>
+      </c>
+      <c r="EI13" t="s">
+        <v>922</v>
+      </c>
+      <c r="EJ13" t="s">
+        <v>923</v>
+      </c>
+      <c r="EK13" t="s">
+        <v>924</v>
+      </c>
+      <c r="EL13" t="s">
+        <v>925</v>
+      </c>
+      <c r="EM13" t="s">
+        <v>926</v>
+      </c>
+      <c r="EN13" t="s">
+        <v>927</v>
+      </c>
+      <c r="EO13" t="s">
+        <v>928</v>
+      </c>
+      <c r="EP13" t="s">
+        <v>929</v>
+      </c>
+      <c r="EQ13" t="s">
+        <v>930</v>
+      </c>
+      <c r="ER13" t="s">
+        <v>931</v>
+      </c>
+      <c r="ES13" t="s">
+        <v>932</v>
+      </c>
+      <c r="ET13" t="s">
+        <v>933</v>
+      </c>
+      <c r="EU13" t="s">
+        <v>934</v>
+      </c>
+      <c r="EV13" t="s">
+        <v>935</v>
+      </c>
+      <c r="EW13" t="s">
+        <v>936</v>
+      </c>
+      <c r="EX13" t="s">
+        <v>937</v>
+      </c>
+      <c r="EY13" t="s">
+        <v>938</v>
+      </c>
+      <c r="EZ13" t="s">
+        <v>939</v>
+      </c>
+      <c r="FA13" t="s">
+        <v>940</v>
+      </c>
+      <c r="FB13" t="s">
+        <v>941</v>
+      </c>
+      <c r="FC13" t="s">
+        <v>942</v>
+      </c>
+      <c r="FD13" t="s">
+        <v>943</v>
+      </c>
+      <c r="FE13" t="s">
+        <v>944</v>
+      </c>
+      <c r="FF13" t="s">
+        <v>945</v>
+      </c>
+      <c r="FG13" t="s">
+        <v>946</v>
+      </c>
+      <c r="FH13" t="s">
+        <v>947</v>
+      </c>
+      <c r="FI13" t="s">
+        <v>948</v>
+      </c>
+      <c r="FJ13" t="s">
+        <v>949</v>
+      </c>
+      <c r="FK13" t="s">
+        <v>950</v>
+      </c>
+      <c r="FL13" t="s">
+        <v>951</v>
+      </c>
+      <c r="FM13" t="s">
+        <v>952</v>
+      </c>
+      <c r="FN13" t="s">
+        <v>953</v>
+      </c>
+      <c r="FO13" t="s">
+        <v>954</v>
+      </c>
+      <c r="FP13" t="s">
+        <v>955</v>
+      </c>
+      <c r="FQ13" t="s">
+        <v>956</v>
+      </c>
+      <c r="FR13" t="s">
+        <v>957</v>
+      </c>
+      <c r="FS13" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="14" spans="1:84">
       <c r="A14" t="s">
-        <v>822</v>
+        <v>959</v>
       </c>
       <c r="B14" t="s">
-        <v>823</v>
+        <v>960</v>
       </c>
       <c r="C14" t="s">
-        <v>824</v>
+        <v>961</v>
       </c>
       <c r="D14" t="s">
-        <v>825</v>
+        <v>962</v>
       </c>
       <c r="E14" t="s">
-        <v>826</v>
+        <v>963</v>
       </c>
       <c r="F14" t="s">
-        <v>827</v>
+        <v>964</v>
       </c>
       <c r="G14" t="s">
-        <v>828</v>
+        <v>965</v>
       </c>
       <c r="H14" t="s">
-        <v>829</v>
+        <v>966</v>
       </c>
       <c r="I14" t="s">
-        <v>830</v>
+        <v>967</v>
       </c>
       <c r="J14" t="s">
-        <v>831</v>
+        <v>968</v>
       </c>
       <c r="K14" t="s">
-        <v>832</v>
+        <v>969</v>
       </c>
       <c r="L14" t="s">
-        <v>833</v>
+        <v>970</v>
       </c>
       <c r="M14" t="s">
-        <v>834</v>
+        <v>971</v>
       </c>
       <c r="N14" t="s">
         <v>308</v>
       </c>
       <c r="O14" t="s">
-        <v>835</v>
+        <v>972</v>
       </c>
       <c r="P14" t="s">
-        <v>836</v>
+        <v>973</v>
       </c>
       <c r="Q14" t="s">
-        <v>837</v>
+        <v>974</v>
       </c>
       <c r="R14" t="s">
-        <v>838</v>
+        <v>975</v>
       </c>
       <c r="S14" t="s">
-        <v>839</v>
+        <v>976</v>
       </c>
       <c r="T14" t="s">
-        <v>840</v>
+        <v>977</v>
       </c>
       <c r="U14" t="s">
-        <v>841</v>
+        <v>978</v>
       </c>
       <c r="V14" t="s">
-        <v>734</v>
+        <v>777</v>
       </c>
       <c r="W14" t="s">
-        <v>842</v>
+        <v>979</v>
       </c>
       <c r="X14" t="s">
-        <v>843</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="s">
-        <v>646</v>
+        <v>689</v>
       </c>
       <c r="Z14" t="s">
-        <v>844</v>
+        <v>981</v>
       </c>
       <c r="AA14" t="s">
+        <v>744</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>982</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>983</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>984</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>985</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>986</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>987</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>988</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>989</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>990</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>991</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>711</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>992</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>993</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>994</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>995</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>996</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>997</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>998</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>999</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>1005</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>1006</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>1007</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>1008</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>1009</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>1010</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>1012</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>1013</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>1014</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>1015</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>1016</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>1018</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>1020</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>1021</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>704</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>1022</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>706</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>1024</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>1025</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>1026</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>1027</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>1028</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>1029</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>694</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>1031</v>
+      </c>
+      <c r="CD14" t="s">
         <v>701</v>
       </c>
-      <c r="AB14" t="s">
-        <v>845</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>846</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>847</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>848</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>849</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>850</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>851</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>852</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>853</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>854</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>668</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>855</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>856</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>857</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>858</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>859</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>860</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>861</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>862</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>863</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>864</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>865</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>866</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>867</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>868</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>869</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>870</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>871</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>872</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>873</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>874</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>875</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>876</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>877</v>
-      </c>
-      <c r="BJ14" t="s">
-        <v>878</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>879</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>880</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>881</v>
-      </c>
-      <c r="BN14" t="s">
-        <v>882</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>883</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>884</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>661</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>885</v>
-      </c>
-      <c r="BS14" t="s">
-        <v>886</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>663</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>887</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>888</v>
-      </c>
-      <c r="BW14" t="s">
-        <v>889</v>
-      </c>
-      <c r="BX14" t="s">
-        <v>890</v>
-      </c>
-      <c r="BY14" t="s">
-        <v>891</v>
-      </c>
-      <c r="BZ14" t="s">
-        <v>892</v>
-      </c>
-      <c r="CA14" t="s">
-        <v>651</v>
-      </c>
-      <c r="CB14" t="s">
-        <v>893</v>
-      </c>
-      <c r="CC14" t="s">
-        <v>894</v>
-      </c>
-      <c r="CD14" t="s">
-        <v>658</v>
-      </c>
       <c r="CE14" t="s">
-        <v>895</v>
+        <v>1032</v>
       </c>
       <c r="CF14" t="s">
-        <v>896</v>
+        <v>1033</v>
       </c>
     </row>
-    <row r="15" spans="1:151">
+    <row r="15" spans="1:153">
       <c r="A15" t="s">
-        <v>897</v>
+        <v>1034</v>
       </c>
       <c r="B15" t="s">
-        <v>898</v>
+        <v>1035</v>
       </c>
       <c r="C15" t="s">
-        <v>899</v>
+        <v>1036</v>
       </c>
       <c r="D15" t="s">
-        <v>900</v>
+        <v>1037</v>
       </c>
       <c r="E15" t="s">
-        <v>901</v>
+        <v>1038</v>
       </c>
       <c r="F15" t="s">
-        <v>902</v>
+        <v>1039</v>
       </c>
       <c r="G15" t="s">
-        <v>903</v>
+        <v>1040</v>
       </c>
       <c r="H15" t="s">
-        <v>904</v>
+        <v>1041</v>
       </c>
       <c r="I15" t="s">
-        <v>905</v>
+        <v>1042</v>
       </c>
       <c r="J15" t="s">
-        <v>906</v>
+        <v>1043</v>
       </c>
       <c r="K15" t="s">
-        <v>907</v>
+        <v>1044</v>
       </c>
       <c r="L15" t="s">
-        <v>908</v>
+        <v>1045</v>
       </c>
       <c r="M15" t="s">
-        <v>909</v>
+        <v>1046</v>
       </c>
       <c r="N15" t="s">
-        <v>910</v>
+        <v>1047</v>
       </c>
       <c r="O15" t="s">
-        <v>911</v>
+        <v>1048</v>
       </c>
       <c r="P15" t="s">
-        <v>912</v>
+        <v>1049</v>
       </c>
       <c r="Q15" t="s">
-        <v>913</v>
+        <v>1050</v>
       </c>
       <c r="R15" t="s">
-        <v>914</v>
+        <v>1051</v>
       </c>
       <c r="S15" t="s">
-        <v>915</v>
+        <v>1052</v>
       </c>
       <c r="T15" t="s">
-        <v>916</v>
+        <v>1053</v>
       </c>
       <c r="U15" t="s">
-        <v>917</v>
+        <v>1054</v>
       </c>
       <c r="V15" t="s">
-        <v>918</v>
+        <v>1055</v>
       </c>
       <c r="W15" t="s">
-        <v>919</v>
+        <v>1056</v>
       </c>
       <c r="X15" t="s">
-        <v>920</v>
+        <v>1057</v>
       </c>
       <c r="Y15" t="s">
-        <v>921</v>
+        <v>1058</v>
       </c>
       <c r="Z15" t="s">
-        <v>922</v>
+        <v>1059</v>
       </c>
       <c r="AA15" t="s">
-        <v>923</v>
+        <v>1060</v>
       </c>
       <c r="AB15" t="s">
-        <v>924</v>
+        <v>1061</v>
       </c>
       <c r="AC15" t="s">
-        <v>925</v>
+        <v>1062</v>
       </c>
       <c r="AD15" t="s">
-        <v>926</v>
+        <v>1063</v>
       </c>
       <c r="AE15" t="s">
-        <v>927</v>
+        <v>1064</v>
       </c>
       <c r="AF15" t="s">
-        <v>928</v>
+        <v>1065</v>
       </c>
       <c r="AG15" t="s">
-        <v>929</v>
+        <v>1066</v>
       </c>
       <c r="AH15" t="s">
-        <v>930</v>
+        <v>1067</v>
       </c>
       <c r="AI15" t="s">
-        <v>931</v>
+        <v>1068</v>
       </c>
       <c r="AJ15" t="s">
-        <v>932</v>
+        <v>1069</v>
       </c>
       <c r="AK15" t="s">
-        <v>933</v>
+        <v>1070</v>
       </c>
       <c r="AL15" t="s">
-        <v>934</v>
+        <v>1071</v>
       </c>
       <c r="AM15" t="s">
-        <v>935</v>
+        <v>1072</v>
       </c>
       <c r="AN15" t="s">
-        <v>936</v>
+        <v>1073</v>
       </c>
       <c r="AO15" t="s">
-        <v>937</v>
+        <v>1074</v>
       </c>
       <c r="AP15" t="s">
-        <v>938</v>
+        <v>1075</v>
       </c>
       <c r="AQ15" t="s">
-        <v>939</v>
+        <v>1076</v>
       </c>
       <c r="AR15" t="s">
-        <v>940</v>
+        <v>1077</v>
       </c>
       <c r="AS15" t="s">
-        <v>941</v>
+        <v>596</v>
       </c>
       <c r="AT15" t="s">
-        <v>942</v>
+        <v>1078</v>
       </c>
       <c r="AU15" t="s">
-        <v>943</v>
+        <v>1079</v>
       </c>
       <c r="AV15" t="s">
-        <v>944</v>
+        <v>1080</v>
       </c>
       <c r="AW15" t="s">
-        <v>945</v>
+        <v>1081</v>
       </c>
       <c r="AX15" t="s">
-        <v>946</v>
+        <v>1082</v>
       </c>
       <c r="AY15" t="s">
-        <v>947</v>
+        <v>1083</v>
       </c>
       <c r="AZ15" t="s">
-        <v>948</v>
+        <v>1084</v>
       </c>
       <c r="BA15" t="s">
-        <v>949</v>
+        <v>1085</v>
       </c>
       <c r="BB15" t="s">
-        <v>950</v>
+        <v>1086</v>
       </c>
       <c r="BC15" t="s">
-        <v>951</v>
+        <v>1087</v>
       </c>
       <c r="BD15" t="s">
-        <v>952</v>
+        <v>1088</v>
       </c>
       <c r="BE15" t="s">
-        <v>953</v>
+        <v>1089</v>
       </c>
       <c r="BF15" t="s">
-        <v>954</v>
+        <v>1090</v>
       </c>
       <c r="BG15" t="s">
-        <v>955</v>
+        <v>1091</v>
       </c>
       <c r="BH15" t="s">
-        <v>956</v>
+        <v>1092</v>
       </c>
       <c r="BI15" t="s">
-        <v>957</v>
+        <v>1093</v>
       </c>
       <c r="BJ15" t="s">
-        <v>958</v>
+        <v>1094</v>
       </c>
       <c r="BK15" t="s">
-        <v>959</v>
+        <v>1095</v>
       </c>
       <c r="BL15" t="s">
-        <v>960</v>
+        <v>1096</v>
       </c>
       <c r="BM15" t="s">
-        <v>961</v>
+        <v>1097</v>
       </c>
       <c r="BN15" t="s">
-        <v>962</v>
+        <v>1098</v>
       </c>
       <c r="BO15" t="s">
-        <v>963</v>
+        <v>1099</v>
       </c>
       <c r="BP15" t="s">
-        <v>964</v>
+        <v>1100</v>
       </c>
       <c r="BQ15" t="s">
-        <v>965</v>
+        <v>1101</v>
       </c>
       <c r="BR15" t="s">
-        <v>966</v>
+        <v>1102</v>
       </c>
       <c r="BS15" t="s">
-        <v>967</v>
+        <v>1103</v>
       </c>
       <c r="BT15" t="s">
-        <v>968</v>
+        <v>1104</v>
       </c>
       <c r="BU15" t="s">
-        <v>969</v>
+        <v>1105</v>
       </c>
       <c r="BV15" t="s">
-        <v>970</v>
+        <v>1106</v>
       </c>
       <c r="BW15" t="s">
-        <v>971</v>
+        <v>1107</v>
       </c>
       <c r="BX15" t="s">
-        <v>972</v>
+        <v>1108</v>
       </c>
       <c r="BY15" t="s">
-        <v>973</v>
+        <v>1109</v>
       </c>
       <c r="BZ15" t="s">
-        <v>974</v>
+        <v>1110</v>
       </c>
       <c r="CA15" t="s">
-        <v>975</v>
+        <v>1111</v>
       </c>
       <c r="CB15" t="s">
-        <v>976</v>
+        <v>1112</v>
       </c>
       <c r="CC15" t="s">
-        <v>977</v>
+        <v>1113</v>
       </c>
       <c r="CD15" t="s">
-        <v>978</v>
+        <v>1114</v>
       </c>
       <c r="CE15" t="s">
-        <v>979</v>
+        <v>1115</v>
       </c>
       <c r="CF15" t="s">
-        <v>980</v>
+        <v>1116</v>
       </c>
       <c r="CG15" t="s">
-        <v>981</v>
+        <v>1117</v>
       </c>
       <c r="CH15" t="s">
-        <v>982</v>
+        <v>1118</v>
       </c>
       <c r="CI15" t="s">
-        <v>983</v>
+        <v>1119</v>
       </c>
       <c r="CJ15" t="s">
-        <v>984</v>
+        <v>1120</v>
       </c>
       <c r="CK15" t="s">
-        <v>985</v>
+        <v>1121</v>
       </c>
       <c r="CL15" t="s">
-        <v>986</v>
+        <v>1122</v>
       </c>
       <c r="CM15" t="s">
-        <v>987</v>
+        <v>1123</v>
       </c>
       <c r="CN15" t="s">
-        <v>988</v>
+        <v>1124</v>
       </c>
       <c r="CO15" t="s">
-        <v>989</v>
+        <v>1125</v>
       </c>
       <c r="CP15" t="s">
-        <v>990</v>
+        <v>1126</v>
       </c>
       <c r="CQ15" t="s">
-        <v>991</v>
+        <v>1127</v>
       </c>
       <c r="CR15" t="s">
-        <v>992</v>
+        <v>1128</v>
       </c>
       <c r="CS15" t="s">
-        <v>993</v>
+        <v>1129</v>
       </c>
       <c r="CT15" t="s">
-        <v>994</v>
+        <v>1130</v>
       </c>
       <c r="CU15" t="s">
-        <v>995</v>
+        <v>1131</v>
       </c>
       <c r="CV15" t="s">
-        <v>996</v>
+        <v>1132</v>
       </c>
       <c r="CW15" t="s">
-        <v>997</v>
+        <v>1133</v>
       </c>
       <c r="CX15" t="s">
-        <v>998</v>
+        <v>1134</v>
       </c>
       <c r="CY15" t="s">
-        <v>999</v>
+        <v>1135</v>
       </c>
       <c r="CZ15" t="s">
-        <v>1000</v>
+        <v>1136</v>
       </c>
       <c r="DA15" t="s">
-        <v>1001</v>
+        <v>1137</v>
       </c>
       <c r="DB15" t="s">
-        <v>1002</v>
+        <v>1138</v>
       </c>
       <c r="DC15" t="s">
-        <v>1003</v>
+        <v>1139</v>
       </c>
       <c r="DD15" t="s">
-        <v>1004</v>
+        <v>1140</v>
       </c>
       <c r="DE15" t="s">
-        <v>1005</v>
+        <v>1141</v>
       </c>
       <c r="DF15" t="s">
-        <v>982</v>
+        <v>1118</v>
       </c>
       <c r="DG15" t="s">
-        <v>1006</v>
+        <v>1142</v>
       </c>
       <c r="DH15" t="s">
-        <v>900</v>
+        <v>1037</v>
       </c>
       <c r="DI15" t="s">
-        <v>1007</v>
+        <v>1143</v>
       </c>
       <c r="DJ15" t="s">
-        <v>1008</v>
+        <v>1144</v>
       </c>
       <c r="DK15" t="s">
-        <v>1009</v>
+        <v>1145</v>
       </c>
       <c r="DL15" t="s">
-        <v>1010</v>
+        <v>1146</v>
       </c>
       <c r="DM15" t="s">
-        <v>1011</v>
+        <v>1147</v>
       </c>
       <c r="DN15" t="s">
-        <v>1012</v>
+        <v>1148</v>
       </c>
       <c r="DO15" t="s">
-        <v>1013</v>
+        <v>1149</v>
       </c>
       <c r="DP15" t="s">
-        <v>1014</v>
+        <v>1150</v>
       </c>
       <c r="DQ15" t="s">
-        <v>1015</v>
+        <v>1151</v>
       </c>
       <c r="DR15" t="s">
-        <v>1016</v>
+        <v>1152</v>
       </c>
       <c r="DS15" t="s">
-        <v>1017</v>
+        <v>1153</v>
       </c>
       <c r="DT15" t="s">
-        <v>1018</v>
+        <v>1154</v>
       </c>
       <c r="DU15" t="s">
-        <v>1019</v>
+        <v>1155</v>
       </c>
       <c r="DV15" t="s">
-        <v>1020</v>
+        <v>1156</v>
       </c>
       <c r="DW15" t="s">
-        <v>1021</v>
+        <v>1157</v>
       </c>
       <c r="DX15" t="s">
-        <v>1022</v>
+        <v>1158</v>
       </c>
       <c r="DY15" t="s">
-        <v>1023</v>
+        <v>1159</v>
       </c>
       <c r="DZ15" t="s">
-        <v>1024</v>
+        <v>1160</v>
       </c>
       <c r="EA15" t="s">
-        <v>1025</v>
+        <v>1161</v>
       </c>
       <c r="EB15" t="s">
-        <v>1026</v>
+        <v>1162</v>
       </c>
       <c r="EC15" t="s">
-        <v>1027</v>
+        <v>1163</v>
       </c>
       <c r="ED15" t="s">
-        <v>1028</v>
+        <v>1164</v>
       </c>
       <c r="EE15" t="s">
-        <v>1029</v>
+        <v>1165</v>
       </c>
       <c r="EF15" t="s">
-        <v>990</v>
+        <v>1126</v>
       </c>
       <c r="EG15" t="s">
-        <v>1030</v>
+        <v>1166</v>
       </c>
       <c r="EH15" t="s">
-        <v>1031</v>
+        <v>1167</v>
       </c>
       <c r="EI15" t="s">
-        <v>1032</v>
+        <v>1168</v>
       </c>
       <c r="EJ15" t="s">
-        <v>1033</v>
+        <v>1169</v>
       </c>
       <c r="EK15" t="s">
-        <v>1034</v>
+        <v>1170</v>
       </c>
       <c r="EL15" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EM15" t="s">
+        <v>1172</v>
+      </c>
+      <c r="EN15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EO15" t="s">
+        <v>1174</v>
+      </c>
+      <c r="EP15" t="s">
+        <v>1175</v>
+      </c>
+      <c r="EQ15" t="s">
+        <v>1176</v>
+      </c>
+      <c r="ER15" t="s">
+        <v>1177</v>
+      </c>
+      <c r="ES15" t="s">
+        <v>1178</v>
+      </c>
+      <c r="ET15" t="s">
+        <v>1179</v>
+      </c>
+      <c r="EU15" t="s">
         <v>1035</v>
       </c>
-      <c r="EM15" t="s">
-        <v>1036</v>
-      </c>
-      <c r="EN15" t="s">
-        <v>1037</v>
-      </c>
-      <c r="EO15" t="s">
-        <v>1038</v>
-      </c>
-      <c r="EP15" t="s">
-        <v>1039</v>
-      </c>
-      <c r="EQ15" t="s">
-        <v>1040</v>
-      </c>
-      <c r="ER15" t="s">
-        <v>1041</v>
-      </c>
-      <c r="ES15" t="s">
-        <v>1042</v>
-      </c>
-      <c r="ET15" t="s">
-        <v>1043</v>
-      </c>
-      <c r="EU15" t="s">
-        <v>898</v>
+      <c r="EV15" t="s">
+        <v>1180</v>
+      </c>
+      <c r="EW15" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="16" spans="1:152">
       <c r="A16" t="s">
-        <v>1044</v>
+        <v>1182</v>
       </c>
       <c r="B16" t="s">
-        <v>1045</v>
+        <v>1183</v>
       </c>
       <c r="C16" t="s">
-        <v>1046</v>
+        <v>1184</v>
       </c>
       <c r="D16" t="s">
-        <v>1047</v>
+        <v>1185</v>
       </c>
       <c r="E16" t="s">
-        <v>1048</v>
+        <v>1186</v>
       </c>
       <c r="F16" t="s">
-        <v>1049</v>
+        <v>1187</v>
       </c>
       <c r="G16" t="s">
-        <v>1050</v>
+        <v>1188</v>
       </c>
       <c r="H16" t="s">
-        <v>1051</v>
+        <v>1189</v>
       </c>
       <c r="I16" t="s">
-        <v>1052</v>
+        <v>1190</v>
       </c>
       <c r="J16" t="s">
-        <v>1053</v>
+        <v>1191</v>
       </c>
       <c r="K16" t="s">
-        <v>1054</v>
+        <v>1192</v>
       </c>
       <c r="L16" t="s">
-        <v>1055</v>
+        <v>1193</v>
       </c>
       <c r="M16" t="s">
-        <v>1056</v>
+        <v>1194</v>
       </c>
       <c r="N16" t="s">
-        <v>1057</v>
+        <v>1195</v>
       </c>
       <c r="O16" t="s">
-        <v>1058</v>
+        <v>1196</v>
       </c>
       <c r="P16" t="s">
-        <v>1059</v>
+        <v>1197</v>
       </c>
       <c r="Q16" t="s">
-        <v>1060</v>
+        <v>1198</v>
       </c>
       <c r="R16" t="s">
-        <v>1061</v>
+        <v>1199</v>
       </c>
       <c r="S16" t="s">
-        <v>1062</v>
+        <v>1200</v>
       </c>
       <c r="T16" t="s">
-        <v>1063</v>
+        <v>1201</v>
       </c>
       <c r="U16" t="s">
-        <v>1064</v>
+        <v>1202</v>
       </c>
       <c r="V16" t="s">
-        <v>1065</v>
+        <v>1203</v>
       </c>
       <c r="W16" t="s">
-        <v>1066</v>
+        <v>1204</v>
       </c>
       <c r="X16" t="s">
-        <v>1067</v>
+        <v>1205</v>
       </c>
       <c r="Y16" t="s">
-        <v>1068</v>
+        <v>1206</v>
       </c>
       <c r="Z16" t="s">
-        <v>1069</v>
+        <v>1207</v>
       </c>
       <c r="AA16" t="s">
-        <v>1070</v>
+        <v>1208</v>
       </c>
       <c r="AB16" t="s">
-        <v>1071</v>
+        <v>1209</v>
       </c>
       <c r="AC16" t="s">
-        <v>1072</v>
+        <v>1210</v>
       </c>
       <c r="AD16" t="s">
-        <v>1073</v>
+        <v>1211</v>
       </c>
       <c r="AE16" t="s">
-        <v>1074</v>
+        <v>1212</v>
       </c>
       <c r="AF16" t="s">
-        <v>1075</v>
+        <v>1213</v>
       </c>
       <c r="AG16" t="s">
-        <v>1076</v>
+        <v>1214</v>
       </c>
       <c r="AH16" t="s">
-        <v>1077</v>
+        <v>1215</v>
       </c>
       <c r="AI16" t="s">
-        <v>1078</v>
+        <v>1216</v>
       </c>
       <c r="AJ16" t="s">
-        <v>1079</v>
+        <v>1217</v>
       </c>
       <c r="AK16" t="s">
-        <v>1080</v>
+        <v>1218</v>
       </c>
       <c r="AL16" t="s">
-        <v>1081</v>
+        <v>1219</v>
       </c>
       <c r="AM16" t="s">
-        <v>1082</v>
+        <v>1220</v>
       </c>
       <c r="AN16" t="s">
-        <v>1083</v>
+        <v>1221</v>
       </c>
       <c r="AO16" t="s">
-        <v>1084</v>
+        <v>1222</v>
       </c>
       <c r="AP16" t="s">
-        <v>1085</v>
+        <v>1223</v>
       </c>
       <c r="AQ16" t="s">
-        <v>1086</v>
+        <v>1224</v>
       </c>
       <c r="AR16" t="s">
-        <v>1087</v>
+        <v>1225</v>
       </c>
       <c r="AS16" t="s">
-        <v>1088</v>
+        <v>1226</v>
       </c>
       <c r="AT16" t="s">
-        <v>1089</v>
+        <v>1227</v>
       </c>
       <c r="AU16" t="s">
-        <v>1090</v>
+        <v>1228</v>
       </c>
       <c r="AV16" t="s">
-        <v>1091</v>
+        <v>1229</v>
       </c>
       <c r="AW16" t="s">
-        <v>1092</v>
+        <v>1230</v>
       </c>
       <c r="AX16" t="s">
-        <v>1093</v>
+        <v>1231</v>
       </c>
       <c r="AY16" t="s">
-        <v>1094</v>
+        <v>1232</v>
       </c>
       <c r="AZ16" t="s">
-        <v>1095</v>
+        <v>1233</v>
       </c>
       <c r="BA16" t="s">
-        <v>1096</v>
+        <v>1234</v>
       </c>
       <c r="BB16" t="s">
-        <v>1097</v>
+        <v>1235</v>
       </c>
       <c r="BC16" t="s">
-        <v>1098</v>
+        <v>1236</v>
       </c>
       <c r="BD16" t="s">
-        <v>1099</v>
+        <v>1237</v>
       </c>
       <c r="BE16" t="s">
-        <v>1100</v>
+        <v>1238</v>
       </c>
       <c r="BF16" t="s">
-        <v>1101</v>
+        <v>1239</v>
       </c>
       <c r="BG16" t="s">
-        <v>1102</v>
+        <v>1240</v>
       </c>
       <c r="BH16" t="s">
-        <v>1103</v>
+        <v>1241</v>
       </c>
       <c r="BI16" t="s">
-        <v>1104</v>
+        <v>1242</v>
       </c>
       <c r="BJ16" t="s">
-        <v>1105</v>
+        <v>1243</v>
       </c>
       <c r="BK16" t="s">
-        <v>1106</v>
+        <v>1244</v>
       </c>
       <c r="BL16" t="s">
-        <v>1107</v>
+        <v>1245</v>
       </c>
       <c r="BM16" t="s">
-        <v>1108</v>
+        <v>1246</v>
       </c>
       <c r="BN16" t="s">
-        <v>1109</v>
+        <v>1247</v>
       </c>
       <c r="BO16" t="s">
         <v>5</v>
       </c>
       <c r="BP16" t="s">
-        <v>1110</v>
+        <v>1248</v>
       </c>
       <c r="BQ16" t="s">
-        <v>1111</v>
+        <v>1249</v>
       </c>
       <c r="BR16" t="s">
-        <v>1112</v>
+        <v>1250</v>
       </c>
       <c r="BS16" t="s">
-        <v>1113</v>
+        <v>1251</v>
       </c>
       <c r="BT16" t="s">
-        <v>1114</v>
+        <v>1252</v>
       </c>
       <c r="BU16" t="s">
-        <v>1115</v>
+        <v>1253</v>
       </c>
       <c r="BV16" t="s">
-        <v>1116</v>
+        <v>1254</v>
       </c>
       <c r="BW16" t="s">
-        <v>1117</v>
+        <v>1255</v>
       </c>
       <c r="BX16" t="s">
-        <v>1118</v>
+        <v>1256</v>
       </c>
       <c r="BY16" t="s">
-        <v>1119</v>
+        <v>1257</v>
       </c>
       <c r="BZ16" t="s">
-        <v>1120</v>
+        <v>1258</v>
       </c>
       <c r="CA16" t="s">
-        <v>1121</v>
+        <v>1259</v>
       </c>
       <c r="CB16" t="s">
-        <v>1122</v>
+        <v>1260</v>
       </c>
       <c r="CC16" t="s">
-        <v>1123</v>
+        <v>1261</v>
       </c>
       <c r="CD16" t="s">
-        <v>1124</v>
+        <v>1262</v>
       </c>
       <c r="CE16" t="s">
-        <v>1125</v>
+        <v>1263</v>
       </c>
       <c r="CF16" t="s">
-        <v>1126</v>
+        <v>1264</v>
       </c>
       <c r="CG16" t="s">
-        <v>1127</v>
+        <v>1265</v>
       </c>
       <c r="CH16" t="s">
-        <v>1128</v>
+        <v>1266</v>
       </c>
       <c r="CI16" t="s">
-        <v>1129</v>
+        <v>1267</v>
       </c>
       <c r="CJ16" t="s">
-        <v>1130</v>
+        <v>1268</v>
       </c>
       <c r="CK16" t="s">
-        <v>1131</v>
+        <v>1269</v>
       </c>
       <c r="CL16" t="s">
-        <v>1132</v>
+        <v>1270</v>
       </c>
       <c r="CM16" t="s">
-        <v>1133</v>
+        <v>1271</v>
       </c>
       <c r="CN16" t="s">
-        <v>1134</v>
+        <v>1272</v>
       </c>
       <c r="CO16" t="s">
-        <v>1135</v>
+        <v>1273</v>
       </c>
       <c r="CP16" t="s">
-        <v>1136</v>
+        <v>1274</v>
       </c>
       <c r="CQ16" t="s">
-        <v>1137</v>
+        <v>1275</v>
       </c>
       <c r="CR16" t="s">
-        <v>1138</v>
+        <v>1276</v>
       </c>
       <c r="CS16" t="s">
-        <v>1139</v>
+        <v>1277</v>
       </c>
       <c r="CT16" t="s">
-        <v>1140</v>
+        <v>1278</v>
       </c>
       <c r="CU16" t="s">
-        <v>1141</v>
+        <v>1279</v>
       </c>
       <c r="CV16" t="s">
-        <v>1142</v>
+        <v>1280</v>
       </c>
       <c r="CW16" t="s">
-        <v>1143</v>
+        <v>1281</v>
       </c>
       <c r="CX16" t="s">
-        <v>1144</v>
+        <v>1282</v>
       </c>
       <c r="CY16" t="s">
-        <v>1145</v>
+        <v>1283</v>
       </c>
       <c r="CZ16" t="s">
-        <v>1146</v>
+        <v>1284</v>
       </c>
       <c r="DA16" t="s">
-        <v>1147</v>
+        <v>1285</v>
       </c>
       <c r="DB16" t="s">
-        <v>1148</v>
+        <v>1286</v>
       </c>
       <c r="DC16" t="s">
-        <v>1149</v>
+        <v>1287</v>
       </c>
       <c r="DD16" t="s">
-        <v>1150</v>
+        <v>1288</v>
       </c>
       <c r="DE16" t="s">
-        <v>1151</v>
+        <v>1289</v>
       </c>
       <c r="DF16" t="s">
-        <v>1152</v>
+        <v>1290</v>
       </c>
       <c r="DG16" t="s">
-        <v>1153</v>
+        <v>1291</v>
       </c>
       <c r="DH16" t="s">
-        <v>1154</v>
+        <v>1292</v>
       </c>
       <c r="DI16" t="s">
-        <v>1155</v>
+        <v>1293</v>
       </c>
       <c r="DJ16" t="s">
-        <v>1156</v>
+        <v>1294</v>
       </c>
       <c r="DK16" t="s">
-        <v>1157</v>
+        <v>1295</v>
       </c>
       <c r="DL16" t="s">
-        <v>1158</v>
+        <v>1296</v>
       </c>
       <c r="DM16" t="s">
-        <v>1159</v>
+        <v>1297</v>
       </c>
       <c r="DN16" t="s">
-        <v>1160</v>
+        <v>1298</v>
       </c>
       <c r="DO16" t="s">
-        <v>1161</v>
+        <v>1299</v>
       </c>
       <c r="DP16" t="s">
-        <v>1162</v>
+        <v>1300</v>
       </c>
       <c r="DQ16" t="s">
-        <v>1163</v>
+        <v>1301</v>
       </c>
       <c r="DR16" t="s">
-        <v>1164</v>
+        <v>1302</v>
       </c>
       <c r="DS16" t="s">
-        <v>1165</v>
+        <v>1303</v>
       </c>
       <c r="DT16" t="s">
-        <v>1166</v>
+        <v>1304</v>
       </c>
       <c r="DU16" t="s">
-        <v>1167</v>
+        <v>1305</v>
       </c>
       <c r="DV16" t="s">
-        <v>1168</v>
+        <v>1306</v>
       </c>
       <c r="DW16" t="s">
-        <v>1169</v>
+        <v>1307</v>
       </c>
       <c r="DX16" t="s">
-        <v>1170</v>
+        <v>1308</v>
       </c>
       <c r="DY16" t="s">
-        <v>1171</v>
+        <v>1309</v>
       </c>
       <c r="DZ16" t="s">
-        <v>1172</v>
+        <v>1310</v>
       </c>
       <c r="EA16" t="s">
-        <v>1173</v>
+        <v>1311</v>
       </c>
       <c r="EB16" t="s">
-        <v>1174</v>
+        <v>1312</v>
       </c>
       <c r="EC16" t="s">
-        <v>1175</v>
+        <v>1313</v>
       </c>
       <c r="ED16" t="s">
-        <v>1176</v>
+        <v>1314</v>
       </c>
       <c r="EE16" t="s">
-        <v>1177</v>
+        <v>1315</v>
       </c>
       <c r="EF16" t="s">
-        <v>1178</v>
+        <v>1316</v>
       </c>
       <c r="EG16" t="s">
-        <v>1179</v>
+        <v>1317</v>
       </c>
       <c r="EH16" t="s">
-        <v>1180</v>
+        <v>1318</v>
       </c>
       <c r="EI16" t="s">
-        <v>1181</v>
+        <v>1319</v>
       </c>
       <c r="EJ16" t="s">
-        <v>1182</v>
+        <v>1320</v>
       </c>
       <c r="EK16" t="s">
-        <v>1178</v>
+        <v>1316</v>
       </c>
       <c r="EL16" t="s">
-        <v>1183</v>
+        <v>1321</v>
       </c>
       <c r="EM16" t="s">
-        <v>1184</v>
+        <v>1322</v>
       </c>
       <c r="EN16" t="s">
-        <v>1185</v>
+        <v>1323</v>
       </c>
       <c r="EO16" t="s">
-        <v>1186</v>
+        <v>1324</v>
       </c>
       <c r="EP16" t="s">
-        <v>1187</v>
+        <v>1325</v>
       </c>
       <c r="EQ16" t="s">
-        <v>1188</v>
+        <v>1326</v>
       </c>
       <c r="ER16" t="s">
-        <v>1189</v>
+        <v>1327</v>
       </c>
       <c r="ES16" t="s">
-        <v>1190</v>
+        <v>1328</v>
       </c>
       <c r="ET16" t="s">
-        <v>1191</v>
+        <v>1329</v>
       </c>
       <c r="EU16" t="s">
-        <v>1192</v>
+        <v>1330</v>
       </c>
       <c r="EV16" t="s">
-        <v>1193</v>
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:71">
+      <c r="A17" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1341</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1344</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1345</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1346</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1348</v>
+      </c>
+      <c r="R17" t="s">
+        <v>272</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1349</v>
+      </c>
+      <c r="T17" t="s">
+        <v>1350</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1351</v>
+      </c>
+      <c r="V17" t="s">
+        <v>1352</v>
+      </c>
+      <c r="W17" t="s">
+        <v>403</v>
+      </c>
+      <c r="X17" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>1353</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>1354</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>1355</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>1356</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>1358</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>1359</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>1364</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>1365</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>1366</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>1367</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>1370</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>1376</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>1378</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>1380</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>1381</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>1382</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>1383</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>1384</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>1385</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>1387</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>1388</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>1389</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>1390</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>1391</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>1392</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>1393</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>1394</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>1395</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>1396</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>1397</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>1398</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>1399</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="$A10:$XFD10">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="$A17:$XFD17">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EP13:XFD13;A13:EN13">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
